--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Futures.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Futures.xlsx
@@ -16,9 +16,6 @@
     <sheet name="3M (2)" sheetId="25" r:id="rId7"/>
     <sheet name="ImmFra6M (2)" sheetId="26" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!#REF!</definedName>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>Currency</t>
   </si>
@@ -124,6 +121,9 @@
   <si>
     <t>Libor</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +137,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="General_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -637,22 +637,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -947,7 +931,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="7" customWidth="1"/>
@@ -958,13 +942,13 @@
     <col min="7" max="16384" width="8" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="52" t="s">
         <v>8</v>
@@ -973,14 +957,14 @@
       <c r="D2" s="53"/>
       <c r="E2" s="54"/>
     </row>
-    <row r="3" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="15"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="15"/>
       <c r="C4" s="25" t="s">
@@ -989,7 +973,7 @@
       <c r="D4" s="26"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="15"/>
       <c r="C5" s="25" t="s">
@@ -1000,7 +984,7 @@
       </c>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="15"/>
       <c r="C6" s="25" t="s">
@@ -1011,7 +995,7 @@
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="15"/>
       <c r="C7" s="25" t="s">
@@ -1022,19 +1006,18 @@
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="15"/>
       <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="15"/>
       <c r="C9" s="25" t="s">
@@ -1045,15 +1028,15 @@
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>19</v>
       </c>
@@ -1064,13 +1047,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="29" t="s">
         <v>0</v>
@@ -1083,7 +1066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="29" t="s">
         <v>20</v>
@@ -1093,7 +1076,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="21"/>
       <c r="C16" s="29" t="s">
         <v>15</v>
@@ -1103,7 +1086,7 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="2:5" ht="13.5" thickBot="1">
+    <row r="17" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -1138,7 +1121,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -1152,7 +1135,7 @@
     <col min="11" max="11" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1170,7 +1153,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -1194,17 +1177,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>GBP_YCSTDRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -1243,7 +1226,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -1281,7 +1264,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -1319,7 +1302,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -1357,7 +1340,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -1395,7 +1378,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -1433,7 +1416,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -1471,7 +1454,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -1509,7 +1492,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -1547,7 +1530,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -1585,7 +1568,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -1623,7 +1606,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -1661,7 +1644,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -1699,7 +1682,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -1737,7 +1720,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -1775,7 +1758,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -1813,7 +1796,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -1851,7 +1834,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -1889,7 +1872,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -1927,7 +1910,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -1965,7 +1948,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -2003,7 +1986,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -2041,7 +2024,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -2079,7 +2062,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -2117,7 +2100,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -2155,7 +2138,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -2193,7 +2176,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -2231,7 +2214,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -2269,7 +2252,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -2307,7 +2290,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -2345,7 +2328,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -2383,7 +2366,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -2421,7 +2404,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -2459,7 +2442,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -2497,7 +2480,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -2535,7 +2518,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -2573,7 +2556,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -2611,7 +2594,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -2648,7 +2631,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -2685,7 +2668,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -2722,7 +2705,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -2759,7 +2742,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -2796,7 +2779,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -2833,7 +2816,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -2870,7 +2853,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -2907,7 +2890,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -2944,7 +2927,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -2981,7 +2964,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -3018,7 +3001,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -3055,7 +3038,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -3092,7 +3075,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -3129,7 +3112,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -3166,7 +3149,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -3203,7 +3186,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -3240,7 +3223,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -3277,7 +3260,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -3314,7 +3297,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -3351,7 +3334,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -3388,7 +3371,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -3425,7 +3408,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -3462,7 +3445,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -3499,7 +3482,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -3536,7 +3519,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -3573,7 +3556,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -3610,7 +3593,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -3647,7 +3630,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -3684,7 +3667,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -3721,7 +3704,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -3758,7 +3741,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -3795,7 +3778,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -3832,7 +3815,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -3869,7 +3852,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -3906,7 +3889,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -3943,7 +3926,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -3980,7 +3963,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -4017,7 +4000,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -4054,7 +4037,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -4091,7 +4074,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -4128,7 +4111,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -4165,7 +4148,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -4202,7 +4185,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -4239,7 +4222,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -4276,7 +4259,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -4313,7 +4296,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -4350,7 +4333,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -4387,7 +4370,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -4424,7 +4407,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -4461,7 +4444,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -4498,7 +4481,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -4535,7 +4518,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -4572,7 +4555,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -4609,7 +4592,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -4646,7 +4629,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -4683,7 +4666,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -4720,7 +4703,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -4757,7 +4740,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -4794,7 +4777,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -4831,7 +4814,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -4868,7 +4851,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -4905,7 +4888,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -4942,7 +4925,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -4979,7 +4962,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -5016,7 +4999,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -5053,7 +5036,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -5090,7 +5073,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -5127,7 +5110,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -5164,7 +5147,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -5201,7 +5184,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -5238,7 +5221,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -5275,7 +5258,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -5312,7 +5295,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -5349,7 +5332,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -5386,7 +5369,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -5423,7 +5406,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -5460,7 +5443,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -5497,7 +5480,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -5534,7 +5517,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -5571,7 +5554,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -5608,7 +5591,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -5645,7 +5628,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -5682,7 +5665,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="13.5" thickBot="1">
+    <row r="123" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -5712,7 +5695,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="40" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="40" bestFit="1" customWidth="1"/>
@@ -5728,7 +5711,7 @@
     <col min="12" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -5746,7 +5729,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -5770,17 +5753,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>GBP_YC1MRH_Futures1M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -5819,7 +5802,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -5857,7 +5840,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="46"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -5895,7 +5878,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="46"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -5933,7 +5916,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="46"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -5971,7 +5954,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="46"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -6009,7 +5992,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -6047,7 +6030,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="46"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -6085,7 +6068,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="46"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -6123,7 +6106,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="46"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -6161,7 +6144,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="46"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -6199,7 +6182,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="46"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -6237,7 +6220,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -6275,7 +6258,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -6313,7 +6296,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -6351,7 +6334,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="46"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -6389,7 +6372,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -6427,7 +6410,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="46"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -6465,7 +6448,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="46"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -6503,7 +6486,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="46"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -6541,7 +6524,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="46"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -6579,7 +6562,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -6617,7 +6600,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="46"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -6655,7 +6638,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="46"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -6693,7 +6676,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="46"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -6731,7 +6714,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="46"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -6769,7 +6752,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="46"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -6807,7 +6790,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="46"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -6845,7 +6828,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="46"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -6883,7 +6866,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="46"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -6921,7 +6904,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="46"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -6959,7 +6942,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="46"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -6997,7 +6980,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="46"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -7035,7 +7018,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="46"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -7073,7 +7056,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="46"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -7111,7 +7094,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="46"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -7149,7 +7132,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="46"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -7187,7 +7170,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="46"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -7224,7 +7207,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -7261,7 +7244,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -7298,7 +7281,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -7335,7 +7318,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -7372,7 +7355,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -7409,7 +7392,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -7446,7 +7429,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -7483,7 +7466,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -7520,7 +7503,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -7557,7 +7540,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -7594,7 +7577,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -7631,7 +7614,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -7668,7 +7651,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -7705,7 +7688,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -7742,7 +7725,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -7779,7 +7762,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -7816,7 +7799,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -7853,7 +7836,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -7890,7 +7873,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -7927,7 +7910,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -7964,7 +7947,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -8001,7 +7984,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -8038,7 +8021,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -8075,7 +8058,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -8112,7 +8095,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -8149,7 +8132,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -8186,7 +8169,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -8223,7 +8206,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -8260,7 +8243,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -8297,7 +8280,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -8334,7 +8317,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -8371,7 +8354,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -8408,7 +8391,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -8445,7 +8428,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -8482,7 +8465,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -8519,7 +8502,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -8556,7 +8539,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -8593,7 +8576,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -8630,7 +8613,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -8667,7 +8650,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -8704,7 +8687,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -8741,7 +8724,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -8778,7 +8761,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -8815,7 +8798,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -8852,7 +8835,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -8889,7 +8872,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -8926,7 +8909,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -8963,7 +8946,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -9000,7 +8983,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -9037,7 +9020,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -9074,7 +9057,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -9111,7 +9094,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -9148,7 +9131,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -9185,7 +9168,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -9222,7 +9205,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -9259,7 +9242,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -9296,7 +9279,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -9333,7 +9316,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -9370,7 +9353,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -9407,7 +9390,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -9444,7 +9427,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -9481,7 +9464,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -9518,7 +9501,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -9555,7 +9538,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -9592,7 +9575,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -9629,7 +9612,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -9666,7 +9649,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -9703,7 +9686,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -9740,7 +9723,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -9777,7 +9760,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -9814,7 +9797,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -9851,7 +9834,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -9888,7 +9871,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -9925,7 +9908,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -9962,7 +9945,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -9999,7 +9982,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -10036,7 +10019,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -10073,7 +10056,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -10110,7 +10093,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -10147,7 +10130,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -10184,7 +10167,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -10221,7 +10204,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -10258,7 +10241,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="12" thickBot="1">
+    <row r="123" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -10288,7 +10271,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -10302,7 +10285,7 @@
     <col min="11" max="11" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -10320,7 +10303,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -10344,17 +10327,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>GBP_YC3MRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -10393,7 +10376,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -10431,7 +10414,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -10469,7 +10452,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -10507,7 +10490,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -10545,7 +10528,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -10583,7 +10566,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -10621,7 +10604,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -10659,7 +10642,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -10697,7 +10680,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -10735,7 +10718,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -10773,7 +10756,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -10811,7 +10794,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -10849,7 +10832,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -10887,7 +10870,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -10925,7 +10908,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -10963,7 +10946,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -11001,7 +10984,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -11039,7 +11022,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -11077,7 +11060,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -11115,7 +11098,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -11153,7 +11136,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -11191,7 +11174,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -11229,7 +11212,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -11267,7 +11250,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -11305,7 +11288,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -11343,7 +11326,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -11381,7 +11364,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -11419,7 +11402,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -11457,7 +11440,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -11495,7 +11478,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -11533,7 +11516,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -11571,7 +11554,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -11609,7 +11592,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -11647,7 +11630,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -11685,7 +11668,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -11723,7 +11706,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -11761,7 +11744,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -11798,7 +11781,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -11835,7 +11818,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -11872,7 +11855,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -11909,7 +11892,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -11946,7 +11929,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -11983,7 +11966,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -12020,7 +12003,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -12057,7 +12040,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -12094,7 +12077,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -12131,7 +12114,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -12168,7 +12151,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -12205,7 +12188,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -12242,7 +12225,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -12279,7 +12262,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -12316,7 +12299,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -12353,7 +12336,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -12390,7 +12373,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -12427,7 +12410,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -12464,7 +12447,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -12501,7 +12484,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -12538,7 +12521,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -12575,7 +12558,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -12612,7 +12595,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -12649,7 +12632,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -12686,7 +12669,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -12723,7 +12706,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -12760,7 +12743,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -12797,7 +12780,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -12834,7 +12817,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -12871,7 +12854,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -12908,7 +12891,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -12945,7 +12928,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -12982,7 +12965,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -13019,7 +13002,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -13056,7 +13039,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -13093,7 +13076,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -13130,7 +13113,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -13167,7 +13150,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -13204,7 +13187,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -13241,7 +13224,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -13278,7 +13261,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -13315,7 +13298,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -13352,7 +13335,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -13389,7 +13372,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -13426,7 +13409,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -13463,7 +13446,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -13500,7 +13483,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -13537,7 +13520,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -13574,7 +13557,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -13611,7 +13594,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -13648,7 +13631,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -13685,7 +13668,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -13722,7 +13705,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -13759,7 +13742,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -13796,7 +13779,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -13833,7 +13816,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -13870,7 +13853,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -13907,7 +13890,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -13944,7 +13927,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -13981,7 +13964,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -14018,7 +14001,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -14055,7 +14038,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -14092,7 +14075,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -14129,7 +14112,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -14166,7 +14149,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -14203,7 +14186,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -14240,7 +14223,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -14277,7 +14260,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -14314,7 +14297,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -14351,7 +14334,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -14388,7 +14371,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -14425,7 +14408,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -14462,7 +14445,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -14499,7 +14482,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -14536,7 +14519,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -14573,7 +14556,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -14610,7 +14593,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -14647,7 +14630,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -14684,7 +14667,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -14721,7 +14704,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -14758,7 +14741,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -14795,7 +14778,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -14832,7 +14815,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="13.5" thickBot="1">
+    <row r="123" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -14862,7 +14845,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -14875,7 +14858,7 @@
     <col min="10" max="10" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -14894,7 +14877,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1">
+    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -14915,17 +14898,17 @@
         <f>$G$1&amp;"_"&amp;$F$1&amp;$E$1&amp;".xml"</f>
         <v>GBP_YC6MRH_IMMFRA6M.xml</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -14960,7 +14943,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -14994,7 +14977,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -15028,7 +15011,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -15062,7 +15045,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -15096,7 +15079,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -15130,7 +15113,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -15164,7 +15147,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -15198,7 +15181,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -15232,7 +15215,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -15266,7 +15249,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -15300,7 +15283,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -15334,7 +15317,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -15368,7 +15351,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -15402,7 +15385,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -15436,7 +15419,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -15470,7 +15453,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -15504,7 +15487,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -15538,7 +15521,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -15572,7 +15555,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -15606,7 +15589,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -15640,7 +15623,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -15674,7 +15657,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -15708,7 +15691,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -15742,7 +15725,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -15776,7 +15759,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -15810,7 +15793,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -15844,7 +15827,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -15878,7 +15861,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -15912,7 +15895,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -15946,7 +15929,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -15980,7 +15963,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -16014,7 +15997,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -16048,7 +16031,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -16082,7 +16065,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -16116,7 +16099,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -16150,7 +16133,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -16184,7 +16167,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -16217,7 +16200,7 @@
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -16250,7 +16233,7 @@
       </c>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -16283,7 +16266,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -16316,7 +16299,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -16349,7 +16332,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -16382,7 +16365,7 @@
       </c>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -16415,7 +16398,7 @@
       </c>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -16448,7 +16431,7 @@
       </c>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -16481,7 +16464,7 @@
       </c>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -16514,7 +16497,7 @@
       </c>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -16547,7 +16530,7 @@
       </c>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -16580,7 +16563,7 @@
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -16613,7 +16596,7 @@
       </c>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -16646,7 +16629,7 @@
       </c>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -16679,7 +16662,7 @@
       </c>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -16712,7 +16695,7 @@
       </c>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -16745,7 +16728,7 @@
       </c>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -16778,7 +16761,7 @@
       </c>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -16811,7 +16794,7 @@
       </c>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -16844,7 +16827,7 @@
       </c>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -16877,7 +16860,7 @@
       </c>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -16910,7 +16893,7 @@
       </c>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -16943,7 +16926,7 @@
       </c>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -16976,7 +16959,7 @@
       </c>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -17009,7 +16992,7 @@
       </c>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -17042,7 +17025,7 @@
       </c>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -17075,7 +17058,7 @@
       </c>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -17108,7 +17091,7 @@
       </c>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -17141,7 +17124,7 @@
       </c>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -17174,7 +17157,7 @@
       </c>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -17207,7 +17190,7 @@
       </c>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -17240,7 +17223,7 @@
       </c>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -17273,7 +17256,7 @@
       </c>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -17306,7 +17289,7 @@
       </c>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -17339,7 +17322,7 @@
       </c>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -17372,7 +17355,7 @@
       </c>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -17405,7 +17388,7 @@
       </c>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -17438,7 +17421,7 @@
       </c>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -17471,7 +17454,7 @@
       </c>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -17504,7 +17487,7 @@
       </c>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -17537,7 +17520,7 @@
       </c>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -17570,7 +17553,7 @@
       </c>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -17603,7 +17586,7 @@
       </c>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -17636,7 +17619,7 @@
       </c>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -17669,7 +17652,7 @@
       </c>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -17702,7 +17685,7 @@
       </c>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -17735,7 +17718,7 @@
       </c>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -17768,7 +17751,7 @@
       </c>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -17801,7 +17784,7 @@
       </c>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -17834,7 +17817,7 @@
       </c>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -17867,7 +17850,7 @@
       </c>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -17900,7 +17883,7 @@
       </c>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -17933,7 +17916,7 @@
       </c>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -17966,7 +17949,7 @@
       </c>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -17999,7 +17982,7 @@
       </c>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -18032,7 +18015,7 @@
       </c>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -18065,7 +18048,7 @@
       </c>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -18098,7 +18081,7 @@
       </c>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -18131,7 +18114,7 @@
       </c>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -18164,7 +18147,7 @@
       </c>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -18197,7 +18180,7 @@
       </c>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -18230,7 +18213,7 @@
       </c>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -18263,7 +18246,7 @@
       </c>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -18296,7 +18279,7 @@
       </c>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -18329,7 +18312,7 @@
       </c>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -18362,7 +18345,7 @@
       </c>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -18395,7 +18378,7 @@
       </c>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -18428,7 +18411,7 @@
       </c>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -18461,7 +18444,7 @@
       </c>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -18494,7 +18477,7 @@
       </c>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -18527,7 +18510,7 @@
       </c>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -18560,7 +18543,7 @@
       </c>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -18593,7 +18576,7 @@
       </c>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -18626,7 +18609,7 @@
       </c>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -18659,7 +18642,7 @@
       </c>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -18692,7 +18675,7 @@
       </c>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -18725,7 +18708,7 @@
       </c>
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -18758,7 +18741,7 @@
       </c>
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -18791,7 +18774,7 @@
       </c>
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -18824,7 +18807,7 @@
       </c>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -18857,7 +18840,7 @@
       </c>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -18890,7 +18873,7 @@
       </c>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -18923,7 +18906,7 @@
       </c>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="1:10" ht="13.5" thickBot="1">
+    <row r="123" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -18952,7 +18935,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="40" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="40" bestFit="1" customWidth="1"/>
@@ -18968,7 +18951,7 @@
     <col min="12" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -18986,7 +18969,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -19010,17 +18993,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>GBP_YC1M-MxRH_Futures1M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -19059,7 +19042,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -19097,7 +19080,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="46"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -19135,7 +19118,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="46"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -19173,7 +19156,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="46"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -19211,7 +19194,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="46"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -19249,7 +19232,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -19287,7 +19270,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="46"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -19325,7 +19308,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="46"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -19363,7 +19346,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="46"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -19401,7 +19384,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="46"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -19439,7 +19422,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="46"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -19477,7 +19460,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -19515,7 +19498,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -19553,7 +19536,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -19591,7 +19574,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="46"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -19629,7 +19612,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -19667,7 +19650,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="46"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -19705,7 +19688,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="46"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -19743,7 +19726,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="46"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -19781,7 +19764,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="46"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -19819,7 +19802,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -19857,7 +19840,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="46"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -19895,7 +19878,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="46"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -19933,7 +19916,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="46"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -19971,7 +19954,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="46"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -20009,7 +19992,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="46"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -20047,7 +20030,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="46"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -20085,7 +20068,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="46"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -20123,7 +20106,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="46"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -20161,7 +20144,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="46"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -20199,7 +20182,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="46"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -20237,7 +20220,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="46"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -20275,7 +20258,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="46"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -20313,7 +20296,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="46"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -20351,7 +20334,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="46"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -20389,7 +20372,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="46"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -20427,7 +20410,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="46"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -20464,7 +20447,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -20501,7 +20484,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -20538,7 +20521,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -20575,7 +20558,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -20612,7 +20595,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -20649,7 +20632,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -20686,7 +20669,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -20723,7 +20706,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -20760,7 +20743,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -20797,7 +20780,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -20834,7 +20817,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -20871,7 +20854,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -20908,7 +20891,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -20945,7 +20928,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -20982,7 +20965,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -21019,7 +21002,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -21056,7 +21039,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -21093,7 +21076,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -21130,7 +21113,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -21167,7 +21150,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -21204,7 +21187,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -21241,7 +21224,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -21278,7 +21261,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -21315,7 +21298,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -21352,7 +21335,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -21389,7 +21372,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -21426,7 +21409,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -21463,7 +21446,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -21500,7 +21483,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -21537,7 +21520,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -21574,7 +21557,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -21611,7 +21594,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -21648,7 +21631,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -21685,7 +21668,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -21722,7 +21705,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -21759,7 +21742,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -21796,7 +21779,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -21833,7 +21816,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -21870,7 +21853,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -21907,7 +21890,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -21944,7 +21927,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -21981,7 +21964,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -22018,7 +22001,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -22055,7 +22038,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -22092,7 +22075,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -22129,7 +22112,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -22166,7 +22149,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -22203,7 +22186,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -22240,7 +22223,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -22277,7 +22260,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -22314,7 +22297,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -22351,7 +22334,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -22388,7 +22371,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -22425,7 +22408,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -22462,7 +22445,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -22499,7 +22482,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -22536,7 +22519,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -22573,7 +22556,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -22610,7 +22593,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -22647,7 +22630,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -22684,7 +22667,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -22721,7 +22704,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -22758,7 +22741,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -22795,7 +22778,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -22832,7 +22815,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -22869,7 +22852,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -22906,7 +22889,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -22943,7 +22926,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -22980,7 +22963,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -23017,7 +23000,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -23054,7 +23037,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -23091,7 +23074,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -23128,7 +23111,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -23165,7 +23148,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -23202,7 +23185,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -23239,7 +23222,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -23276,7 +23259,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -23313,7 +23296,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -23350,7 +23333,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -23387,7 +23370,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -23424,7 +23407,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -23461,7 +23444,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -23498,7 +23481,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="12" thickBot="1">
+    <row r="123" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -23528,7 +23511,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -23543,7 +23526,7 @@
     <col min="11" max="11" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -23561,7 +23544,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -23585,17 +23568,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>GBP_YC3M-MxRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -23634,7 +23617,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -23672,7 +23655,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -23710,7 +23693,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -23748,7 +23731,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -23786,7 +23769,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -23824,7 +23807,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -23862,7 +23845,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -23900,7 +23883,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -23938,7 +23921,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -23976,7 +23959,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -24014,7 +23997,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -24052,7 +24035,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -24090,7 +24073,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -24128,7 +24111,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -24166,7 +24149,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -24204,7 +24187,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -24242,7 +24225,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -24280,7 +24263,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -24318,7 +24301,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -24356,7 +24339,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -24394,7 +24377,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -24432,7 +24415,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -24470,7 +24453,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -24508,7 +24491,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -24546,7 +24529,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -24584,7 +24567,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -24622,7 +24605,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -24660,7 +24643,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -24698,7 +24681,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -24736,7 +24719,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -24774,7 +24757,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -24812,7 +24795,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -24850,7 +24833,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -24888,7 +24871,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -24926,7 +24909,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -24964,7 +24947,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -25002,7 +24985,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -25039,7 +25022,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -25076,7 +25059,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -25113,7 +25096,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -25150,7 +25133,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -25187,7 +25170,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -25224,7 +25207,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -25261,7 +25244,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -25298,7 +25281,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -25335,7 +25318,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -25372,7 +25355,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -25409,7 +25392,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -25446,7 +25429,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -25483,7 +25466,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -25520,7 +25503,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -25557,7 +25540,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -25594,7 +25577,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -25631,7 +25614,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -25668,7 +25651,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -25705,7 +25688,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -25742,7 +25725,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -25779,7 +25762,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -25816,7 +25799,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -25853,7 +25836,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -25890,7 +25873,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -25927,7 +25910,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -25964,7 +25947,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -26001,7 +25984,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -26038,7 +26021,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -26075,7 +26058,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -26112,7 +26095,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -26149,7 +26132,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -26186,7 +26169,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -26223,7 +26206,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -26260,7 +26243,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -26297,7 +26280,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -26334,7 +26317,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -26371,7 +26354,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -26408,7 +26391,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -26445,7 +26428,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -26482,7 +26465,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -26519,7 +26502,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -26556,7 +26539,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -26593,7 +26576,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -26630,7 +26613,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -26667,7 +26650,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -26704,7 +26687,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -26741,7 +26724,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -26778,7 +26761,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -26815,7 +26798,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -26852,7 +26835,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -26889,7 +26872,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -26926,7 +26909,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -26963,7 +26946,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -27000,7 +26983,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -27037,7 +27020,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -27074,7 +27057,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -27111,7 +27094,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -27148,7 +27131,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -27185,7 +27168,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -27222,7 +27205,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -27259,7 +27242,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -27296,7 +27279,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -27333,7 +27316,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -27370,7 +27353,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -27407,7 +27390,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -27444,7 +27427,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -27481,7 +27464,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -27518,7 +27501,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -27555,7 +27538,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -27592,7 +27575,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -27629,7 +27612,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -27666,7 +27649,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -27703,7 +27686,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -27740,7 +27723,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -27777,7 +27760,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -27814,7 +27797,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -27851,7 +27834,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -27888,7 +27871,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -27925,7 +27908,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -27962,7 +27945,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -27999,7 +27982,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -28036,7 +28019,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -28073,7 +28056,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="13.5" thickBot="1">
+    <row r="123" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -28103,7 +28086,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -28117,7 +28100,7 @@
     <col min="10" max="10" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -28136,7 +28119,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1">
+    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -28157,17 +28140,17 @@
         <f>$G$1&amp;"_"&amp;$F$1&amp;$E$1&amp;".xml"</f>
         <v>GBP_YC6M-MxRH_IMMFRA6M.xml</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -28202,7 +28185,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -28236,7 +28219,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -28270,7 +28253,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -28304,7 +28287,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -28338,7 +28321,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -28372,7 +28355,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -28406,7 +28389,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -28440,7 +28423,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -28474,7 +28457,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -28508,7 +28491,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -28542,7 +28525,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -28576,7 +28559,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -28610,7 +28593,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -28644,7 +28627,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -28678,7 +28661,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -28712,7 +28695,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -28746,7 +28729,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -28780,7 +28763,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -28814,7 +28797,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -28848,7 +28831,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -28882,7 +28865,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -28916,7 +28899,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -28950,7 +28933,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -28984,7 +28967,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -29018,7 +29001,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -29052,7 +29035,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -29086,7 +29069,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -29120,7 +29103,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -29154,7 +29137,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -29188,7 +29171,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -29222,7 +29205,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -29256,7 +29239,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -29290,7 +29273,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -29324,7 +29307,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -29358,7 +29341,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -29392,7 +29375,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -29426,7 +29409,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -29459,7 +29442,7 @@
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -29492,7 +29475,7 @@
       </c>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -29525,7 +29508,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -29558,7 +29541,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -29591,7 +29574,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -29624,7 +29607,7 @@
       </c>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -29657,7 +29640,7 @@
       </c>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -29690,7 +29673,7 @@
       </c>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -29723,7 +29706,7 @@
       </c>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -29756,7 +29739,7 @@
       </c>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -29789,7 +29772,7 @@
       </c>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -29822,7 +29805,7 @@
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -29855,7 +29838,7 @@
       </c>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -29888,7 +29871,7 @@
       </c>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -29921,7 +29904,7 @@
       </c>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -29954,7 +29937,7 @@
       </c>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -29987,7 +29970,7 @@
       </c>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -30020,7 +30003,7 @@
       </c>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -30053,7 +30036,7 @@
       </c>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -30086,7 +30069,7 @@
       </c>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -30119,7 +30102,7 @@
       </c>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -30152,7 +30135,7 @@
       </c>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -30185,7 +30168,7 @@
       </c>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -30218,7 +30201,7 @@
       </c>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -30251,7 +30234,7 @@
       </c>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -30284,7 +30267,7 @@
       </c>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -30317,7 +30300,7 @@
       </c>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -30350,7 +30333,7 @@
       </c>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -30383,7 +30366,7 @@
       </c>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -30416,7 +30399,7 @@
       </c>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -30449,7 +30432,7 @@
       </c>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -30482,7 +30465,7 @@
       </c>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -30515,7 +30498,7 @@
       </c>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -30548,7 +30531,7 @@
       </c>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -30581,7 +30564,7 @@
       </c>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -30614,7 +30597,7 @@
       </c>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -30647,7 +30630,7 @@
       </c>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -30680,7 +30663,7 @@
       </c>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -30713,7 +30696,7 @@
       </c>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -30746,7 +30729,7 @@
       </c>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -30779,7 +30762,7 @@
       </c>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -30812,7 +30795,7 @@
       </c>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -30845,7 +30828,7 @@
       </c>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -30878,7 +30861,7 @@
       </c>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -30911,7 +30894,7 @@
       </c>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -30944,7 +30927,7 @@
       </c>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -30977,7 +30960,7 @@
       </c>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -31010,7 +30993,7 @@
       </c>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -31043,7 +31026,7 @@
       </c>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -31076,7 +31059,7 @@
       </c>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -31109,7 +31092,7 @@
       </c>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -31142,7 +31125,7 @@
       </c>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -31175,7 +31158,7 @@
       </c>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -31208,7 +31191,7 @@
       </c>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -31241,7 +31224,7 @@
       </c>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -31274,7 +31257,7 @@
       </c>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -31307,7 +31290,7 @@
       </c>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -31340,7 +31323,7 @@
       </c>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -31373,7 +31356,7 @@
       </c>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -31406,7 +31389,7 @@
       </c>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -31439,7 +31422,7 @@
       </c>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -31472,7 +31455,7 @@
       </c>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -31505,7 +31488,7 @@
       </c>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -31538,7 +31521,7 @@
       </c>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -31571,7 +31554,7 @@
       </c>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -31604,7 +31587,7 @@
       </c>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -31637,7 +31620,7 @@
       </c>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -31670,7 +31653,7 @@
       </c>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -31703,7 +31686,7 @@
       </c>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -31736,7 +31719,7 @@
       </c>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -31769,7 +31752,7 @@
       </c>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -31802,7 +31785,7 @@
       </c>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -31835,7 +31818,7 @@
       </c>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -31868,7 +31851,7 @@
       </c>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -31901,7 +31884,7 @@
       </c>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -31934,7 +31917,7 @@
       </c>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -31967,7 +31950,7 @@
       </c>
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -32000,7 +31983,7 @@
       </c>
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -32033,7 +32016,7 @@
       </c>
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -32066,7 +32049,7 @@
       </c>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -32099,7 +32082,7 @@
       </c>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -32132,7 +32115,7 @@
       </c>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -32165,7 +32148,7 @@
       </c>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="1:10" ht="13.5" thickBot="1">
+    <row r="123" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Futures.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_Futures.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>Currency</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Libor</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1009,9 @@
       <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>25</v>
+      <c r="D8" s="27" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="17"/>
     </row>
@@ -1178,12 +1176,12 @@
         <v>GBP_YCSTDRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -5754,12 +5752,12 @@
         <v>GBP_YC1MRH_Futures1M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -10328,12 +10326,12 @@
         <v>GBP_YC3MRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -14899,12 +14897,12 @@
         <v>GBP_YC6MRH_IMMFRA6M.xml</v>
       </c>
       <c r="H2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="11"/>
     </row>
@@ -18994,12 +18992,12 @@
         <v>GBP_YC1M-MxRH_Futures1M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -23569,12 +23567,12 @@
         <v>GBP_YC3M-MxRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -28141,12 +28139,12 @@
         <v>GBP_YC6M-MxRH_IMMFRA6M.xml</v>
       </c>
       <c r="H2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="11"/>
     </row>
